--- a/Python MP/MP_Feedbacks.xlsx
+++ b/Python MP/MP_Feedbacks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>DateTime</t>
   </si>
@@ -32,7 +32,13 @@
     <t>OperationID</t>
   </si>
   <si>
-    <t>4500062699</t>
+    <t>4500063145 10</t>
+  </si>
+  <si>
+    <t>Buy 25% BROKEN RICE_CÔTE D'IVOIRE_200464 [Non GMO] from CÔTE D'IVOIRE at MAN (CÔTE D'IVOIRE)</t>
+  </si>
+  <si>
+    <t>4500062699 10</t>
   </si>
   <si>
     <t>Buy UHT MILK_BURKINA FASO_200163 [Non GMO] from BURKINA FASO at OUAGADOUGOU (BURKINA FASO)</t>
@@ -51,6 +57,96 @@
   </si>
   <si>
     <t>ProductID</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>ABIDJAN (CÔTE D'IVOIRE) [Container]</t>
+  </si>
+  <si>
+    <t>Ship from NEW YORK (USA) to ABIDJAN (CÔTE D'IVOIRE) in Container</t>
+  </si>
+  <si>
+    <t>NEW YORK (USA)</t>
+  </si>
+  <si>
+    <t>SPLIT YELLOW PEAS_CÔTE D'IVOIRE_200960 [Non GMO]</t>
+  </si>
+  <si>
+    <t>DOUALA (CAMEROON) [Container]</t>
+  </si>
+  <si>
+    <t>Ship from DURBAN (SOUTH AFRICA) to DOUALA (CAMEROON) in Container</t>
+  </si>
+  <si>
+    <t>DURBAN (SOUTH AFRICA)</t>
+  </si>
+  <si>
+    <t>SPLIT YELLOW PEAS_CHAD_200713 [Non GMO]</t>
+  </si>
+  <si>
+    <t>LOME (TOGO) [Container]</t>
+  </si>
+  <si>
+    <t>Ship from NEW YORK (USA) to LOME (TOGO) in Container</t>
+  </si>
+  <si>
+    <t>SPLIT YELLOW PEAS_MALI_200719 [Non GMO]</t>
+  </si>
+  <si>
+    <t>Ship from NEW YORK (USA) to DOUALA (CAMEROON) in Container</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_CHAD_200777 [Non GMO]</t>
+  </si>
+  <si>
+    <t>25% BROKEN RICE_CÔTE D'IVOIRE_200960 [Non GMO]</t>
+  </si>
+  <si>
+    <t>COTONOU (BENIN) [Container]</t>
+  </si>
+  <si>
+    <t>Ship from NEW YORK (USA) to COTONOU (BENIN) in Container</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_NIGER_200961 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SPLIT YELLOW PEAS_CEN.AFRICAN REP_200799 [Non GMO]</t>
+  </si>
+  <si>
+    <t>PALMOLIEN OIL_BURKINA FASO_200793 [Non GMO]</t>
+  </si>
+  <si>
+    <t>PALMOLIEN OIL_NIGER_200961 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SPLIT YELLOW PEAS_CHAD_200777 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL PLUS (CSB++)_CAMEROON_200777 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_CAMEROON_200799 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_CHAD_200713 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_MALI_200719 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_NIGER_200777 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_CAMEROON_200777 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_CEN.AFRICAN REP_200799 [Non GMO]</t>
+  </si>
+  <si>
+    <t>PALMOLIEN OIL_MALI_200719 [Non GMO]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,19 +587,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="n">
-        <v>43039</v>
+        <v>42901</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.567</v>
+        <v>560.7</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32.567</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,13 +640,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -542,13 +655,507 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>450</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3750</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.925</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.434</v>
+      </c>
+      <c r="E10" t="n">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="E11" t="n">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="n">
+        <v>109.976</v>
+      </c>
+      <c r="E12" t="n">
         <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.825</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.575</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18.925</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="E19" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
